--- a/static/datafiles/staff_info.xlsx
+++ b/static/datafiles/staff_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Федор\Documents\GIT\Smart_City\static\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61CB582-E84A-43E8-8885-D38B80AA6532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A9A1C-3778-4A05-8639-A7B56225CF82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>ФИО</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>dostoyewski@yandex.ru</t>
+  </si>
+  <si>
+    <t>Малышева Вероника Николаевна</t>
+  </si>
+  <si>
+    <t>Главный энергетик</t>
+  </si>
+  <si>
+    <t>veronikakinorev@ya.ru</t>
   </si>
 </sst>
 </file>
@@ -485,9 +494,9 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -498,7 +507,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,28 +827,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="12.5">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" ht="12.5">
+    <row r="17" spans="1:6" ht="12.5">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.5">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" ht="12.5">
+    <row r="19" spans="1:6" ht="12.5">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" ht="12.5">
+    <row r="20" spans="1:6" ht="12.5">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -863,6 +885,7 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{BCB56C3B-7DD8-476B-9F22-12CD5351BD03}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{F6F52975-C3E5-46A7-8F4A-31EC02C84E4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
